--- a/Data/Donnerstag/joined_Donnerstag_coord_nn.xlsx
+++ b/Data/Donnerstag/joined_Donnerstag_coord_nn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Desktop\git_folder\DataScienceProject\Data\Donnerstag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501BC96D-174A-4859-8D29-2B05FFCE23E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F58AFA40-07EF-4C6C-A07E-EAC3F59A030A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
